--- a/RUDN/Importance/Varible_muatal_reg_in_Polynesia.xlsx
+++ b/RUDN/Importance/Varible_muatal_reg_in_Polynesia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
   <si>
     <t>Survival to age 65, male (% of cohort)</t>
   </si>
@@ -115,12 +115,12 @@
     <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Age population, age 21, male, interpolated</t>
+  </si>
+  <si>
     <t>GNI per capita, PPP (current international $)</t>
   </si>
   <si>
-    <t>Age population, age 21, male, interpolated</t>
-  </si>
-  <si>
     <t>Population ages 10-14, female (% of female population)</t>
   </si>
   <si>
@@ -139,12 +139,12 @@
     <t>Age population, age 20, male, interpolated</t>
   </si>
   <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
     <t>Net official development assistance received (current US$)</t>
   </si>
   <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
     <t>Male population 50-54</t>
   </si>
   <si>
@@ -157,6 +157,9 @@
     <t>Age population, age 0, male, interpolated</t>
   </si>
   <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
     <t>Population ages 65 and above, male</t>
   </si>
   <si>
@@ -166,9 +169,6 @@
     <t>Population ages 40-44, male (% of male population)</t>
   </si>
   <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
     <t>Age population, age 17, female, interpolated</t>
   </si>
   <si>
@@ -349,6 +349,9 @@
     <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
     <t>Net ODA received per capita (current US$)</t>
   </si>
   <si>
@@ -358,9 +361,6 @@
     <t>Population ages 70-74, male (% of male population)</t>
   </si>
   <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
-  </si>
-  <si>
     <t>Age population, age 01, female, interpolated</t>
   </si>
   <si>
@@ -463,30 +463,33 @@
     <t>Age population, age 03, male, interpolated</t>
   </si>
   <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female</t>
+  </si>
+  <si>
+    <t>Age population, age 07, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, total</t>
+  </si>
+  <si>
     <t>Improved water source, urban (% of urban population with access)</t>
   </si>
   <si>
-    <t>Forest area (% of land area)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female</t>
-  </si>
-  <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, total</t>
-  </si>
-  <si>
     <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Male population 05-09</t>
+  </si>
+  <si>
     <t>Age population, age 05, female, interpolated</t>
   </si>
   <si>
@@ -496,9 +499,6 @@
     <t>Age population, age 05, male, interpolated</t>
   </si>
   <si>
-    <t>Male population 05-09</t>
-  </si>
-  <si>
     <t>Population, female</t>
   </si>
   <si>
@@ -514,12 +514,12 @@
     <t>Population, total</t>
   </si>
   <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
     <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
   </si>
   <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
     <t>Population ages 15-64, female (% of total)</t>
   </si>
   <si>
@@ -550,18 +550,18 @@
     <t>Labor force, female</t>
   </si>
   <si>
+    <t>Age population, age 08, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
     <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
   </si>
   <si>
-    <t>Age population, age 08, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 30-34</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
-  </si>
-  <si>
     <t>Population ages 00-14, total</t>
   </si>
   <si>
@@ -574,15 +574,15 @@
     <t>Male population 30-34</t>
   </si>
   <si>
+    <t>Country_code</t>
+  </si>
+  <si>
     <t>Female population 05-09</t>
   </si>
   <si>
     <t>Age population, age 13, female, interpolated</t>
   </si>
   <si>
-    <t>Country_code</t>
-  </si>
-  <si>
     <t>Labor force, total</t>
   </si>
   <si>
@@ -595,12 +595,12 @@
     <t>Immunization, measles (% of children ages 12-23 months)</t>
   </si>
   <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
     <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
   </si>
   <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
     <t>Urban population</t>
   </si>
   <si>
@@ -619,196 +619,199 @@
     <t>Age population, age 08, female, interpolated</t>
   </si>
   <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
     <t>Population ages 0-14, female</t>
   </si>
   <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
     <t>External resources for health (% of total expenditure on health)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
   </si>
   <si>
     <t>Health expenditure, public (% of government expenditure)</t>
   </si>
   <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
-  </si>
-  <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, female (number)</t>
+    <t>Health expenditure, public (% of total health expenditure)</t>
   </si>
   <si>
     <t>Health expenditure, total (% of GDP)</t>
   </si>
   <si>
-    <t>Start-up procedures to register a business, male (number)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
   </si>
   <si>
     <t>Immunization, BCG (% of one-year-old children)</t>
   </si>
   <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+    <t>Number of maternal deaths</t>
+  </si>
+  <si>
+    <t>Number of neonatal deaths</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
   </si>
   <si>
     <t>Net ODA received (% of GNI)</t>
   </si>
   <si>
-    <t>Number of maternal deaths</t>
-  </si>
-  <si>
-    <t>Number of neonatal deaths</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, male (days)</t>
+    <t>School enrollment, primary (% gross)</t>
   </si>
   <si>
     <t>Mortality rate, under-5 (per 1,000 live births)</t>
   </si>
   <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
     <t>Mortality rate, neonatal (per 1,000 live births)</t>
   </si>
   <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
     <t>Trade (% of GDP)</t>
   </si>
   <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
     <t>Inflation, consumer prices (annual %)</t>
   </si>
   <si>
-    <t>Lifetime risk of maternal death (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
     <t>Immunization, Pol3 (% of one-year-old children)</t>
   </si>
   <si>
-    <t>CO2 emissions (kt)</t>
-  </si>
-  <si>
     <t>Age population, age 09, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 09, male, interpolated</t>
   </si>
   <si>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Number of infant deaths</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Number of under-five deaths</t>
+  </si>
+  <si>
     <t>Incidence of tuberculosis (per 100,000 people)</t>
   </si>
   <si>
-    <t>Sex ratio at birth (male births per female births)</t>
-  </si>
-  <si>
-    <t>Number of infant deaths</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Number of under-five deaths</t>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
   </si>
   <si>
     <t>Total debt service (% of exports of goods, services and primary income)</t>
@@ -817,9 +820,6 @@
     <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
   </si>
   <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
-  </si>
-  <si>
     <t>Female population 10-14</t>
   </si>
   <si>
@@ -865,12 +865,12 @@
     <t>Primary education, teachers (% female)</t>
   </si>
   <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
     <t>Age population, age 12, male, interpolated</t>
   </si>
   <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
-  </si>
-  <si>
     <t>Age population, age 11, male, interpolated</t>
   </si>
   <si>
@@ -907,19 +907,16 @@
     <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>People practicing open defecation (% of population)</t>
+  </si>
+  <si>
     <t>Labor force, female (% of total labor force)</t>
   </si>
   <si>
-    <t>People practicing open defecation (% of population)</t>
-  </si>
-  <si>
     <t>Primary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
     <t>Primary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
   </si>
   <si>
     <t>Tuberculosis case detection rate (%, all forms)</t>
@@ -1289,7 +1286,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B307"/>
+  <dimension ref="A1:B306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1321,7 +1318,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.614180727458679</v>
+        <v>1.619308932586885</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1489,7 +1486,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9387477454080508</v>
+        <v>0.9375150037906936</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1521,7 +1518,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.9241077913450193</v>
+        <v>0.9227582636797023</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1569,7 +1566,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.8909729895569674</v>
+        <v>0.8855394613174128</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1577,7 +1574,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.8855394613174128</v>
+        <v>0.8841048576888355</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1681,7 +1678,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.8376425958717271</v>
+        <v>0.8432384930549066</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1689,7 +1686,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.8373363718812916</v>
+        <v>0.8376425958717271</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1697,7 +1694,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.8368656049359764</v>
+        <v>0.8373363718812916</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1705,7 +1702,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.8368282366446502</v>
+        <v>0.8368656049359764</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1889,7 +1886,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.7846779192228397</v>
+        <v>0.7832534177983381</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2113,7 +2110,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.7249385321644484</v>
+        <v>0.726446827790391</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2193,7 +2190,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.6887584466210313</v>
+        <v>0.6893192592653363</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2201,7 +2198,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.6872383194740201</v>
+        <v>0.6887584466210313</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2209,7 +2206,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.6859529723078475</v>
+        <v>0.6872383194740201</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2217,7 +2214,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.6830330832810179</v>
+        <v>0.6859529723078475</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2481,7 +2478,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.5485430750142564</v>
+        <v>0.5498926026795734</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2497,7 +2494,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.5425978231834678</v>
+        <v>0.5416796174575689</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2505,7 +2502,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.5416796174575689</v>
+        <v>0.541608392386344</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2513,7 +2510,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.541608392386344</v>
+        <v>0.5402623264793063</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2521,7 +2518,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.5402623264793063</v>
+        <v>0.5365852303763994</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2529,7 +2526,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.5365852303763994</v>
+        <v>0.5364155941505599</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2537,7 +2534,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.5364155941505599</v>
+        <v>0.5350963858743372</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2545,7 +2542,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.5350963858743372</v>
+        <v>0.534702940288585</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2561,7 +2558,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.5291308398659504</v>
+        <v>0.5293323376647023</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2569,7 +2566,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.5287058516940606</v>
+        <v>0.5291308398659504</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2577,7 +2574,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.5264804941672332</v>
+        <v>0.5287058516940606</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2585,7 +2582,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.5213551296874936</v>
+        <v>0.5264804941672332</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2729,7 +2726,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.47801296162078</v>
+        <v>0.4750942775691129</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2737,7 +2734,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.4750942775691129</v>
+        <v>0.4749047256826775</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2745,7 +2742,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.4749047256826775</v>
+        <v>0.4739242958560936</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2753,7 +2750,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.4739242958560936</v>
+        <v>0.4736556631458346</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2793,7 +2790,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.4469724354810583</v>
+        <v>0.4509752806355238</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2801,7 +2798,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.4439426552409689</v>
+        <v>0.4469724354810583</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2809,7 +2806,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.4365102375505714</v>
+        <v>0.4439426552409689</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2913,7 +2910,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.3883817531595706</v>
+        <v>0.389070314602634</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2921,7 +2918,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.3882524241155416</v>
+        <v>0.3883817531595706</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3329,7 +3326,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.3869114221223657</v>
+        <v>0.3882524241155416</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3337,7 +3334,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.3864248119571312</v>
+        <v>0.3869114221223657</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3345,7 +3342,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.3775235328620166</v>
+        <v>0.3764087056602328</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3361,7 +3358,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.3692671574171023</v>
+        <v>0.3663553262749721</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3369,7 +3366,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.3663553262749721</v>
+        <v>0.3587107230335667</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3377,7 +3374,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.3604375573119145</v>
+        <v>0.3585047678791256</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3385,7 +3382,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.3587107230335667</v>
+        <v>0.3532964750278116</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3393,7 +3390,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.3560421345766946</v>
+        <v>0.349925388075333</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3401,7 +3398,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.3532964750278116</v>
+        <v>0.3478073023647257</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3409,7 +3406,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.3478073023647257</v>
+        <v>0.3465175883919458</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3417,7 +3414,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.3460902379645958</v>
+        <v>0.3455905491251094</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3425,7 +3422,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.3376507038984364</v>
+        <v>0.3440544072043523</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3441,7 +3438,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.3328828864174467</v>
+        <v>0.3376507038984364</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3497,7 +3494,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.293183981333927</v>
+        <v>0.294660282810228</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3569,7 +3566,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.23874884247043</v>
+        <v>0.240541207650429</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -3577,7 +3574,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.237430347921922</v>
+        <v>0.23874884247043</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -3681,7 +3678,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.1139143694517113</v>
+        <v>0.1182418911767116</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -3689,7 +3686,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.09071676101188619</v>
+        <v>0.1139143694517113</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -3713,7 +3710,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.001232097342777738</v>
+        <v>7.771561172376096e-16</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -3737,14 +3734,6 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>7.771561172376096e-16</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2">
-      <c r="A307" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B307">
         <v>7.771561172376096e-16</v>
       </c>
     </row>
